--- a/Data/unicorn_cb_31_dec_21.xlsx
+++ b/Data/unicorn_cb_31_dec_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Documents\GitHub\Trabajo_Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014A3BF8-99BA-4553-B7E1-9ACF40FDC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6C874-A5FB-4D40-BABF-29EA6347841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recovered_Sheet1!$A$1:$G$959</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="2999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6711" uniqueCount="2999">
   <si>
     <t>Company</t>
   </si>
@@ -9400,16 +9399,17 @@
   <dimension ref="A1:G959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I852" sqref="I852"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="18.2109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -9676,16 +9676,16 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>228</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>232</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>236</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>249</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>255</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>265</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>270</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>274</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>283</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>288</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>297</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>300</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>305</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>315</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>321</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>328</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>334</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>337</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>346</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>350</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>362</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>365</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>373</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>377</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>382</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>388</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>392</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>395</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>399</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>403</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>408</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>411</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>418</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>420</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>425</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>428</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>430</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>435</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>438</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>442</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>447</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>450</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>453</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>457</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>461</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>466</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>468</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>474</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>479</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>483</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>488</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>493</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>498</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>502</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>505</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>509</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>512</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>516</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>518</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>521</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>524</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>527</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>530</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>533</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>536</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>539</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>542</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>546</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>548</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>552</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>556</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>560</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>566</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>571</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>575</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>578</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>581</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>584</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>589</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>595</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>599</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>602</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>605</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>609</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>425</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>619</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>622</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>627</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>632</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>637</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>641</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>643</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>647</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>652</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>656</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>661</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>665</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>669</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>672</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>675</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>678</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>682</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>686</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>689</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>692</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>695</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>698</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>701</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>706</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>710</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>713</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>716</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>719</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>722</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>725</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>729</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>734</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>738</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>742</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>746</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>748</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>753</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>756</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>759</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>762</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>766</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>769</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>772</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>775</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>779</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>782</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>785</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>789</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>792</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>794</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>797</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>802</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>806</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>810</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>813</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>816</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>819</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>822</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>823</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>827</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>830</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>833</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>836</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>841</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>845</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>849</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>854</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>859</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>863</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>866</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>869</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>872</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>875</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>878</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>882</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>886</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>889</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>892</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>895</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>898</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>901</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>904</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>907</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>912</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>915</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>918</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>922</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>926</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>929</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>933</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>936</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>939</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>942</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>945</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>948</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>951</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>953</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>956</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>959</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>963</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>967</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>970</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>973</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>977</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>979</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>983</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>987</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>990</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>993</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>995</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>997</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>1000</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>1003</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>1005</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>1008</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>1012</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>1017</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>1019</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>1023</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>1025</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>1029</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>1032</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>1035</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>1039</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>1042</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>1046</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>1050</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>1053</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>1058</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>1062</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>1065</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>1069</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>1073</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>1075</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>1078</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>1082</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>1086</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>1090</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>1093</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>1096</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>1100</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>1103</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>1106</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>1110</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>1114</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>1118</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>1122</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>1125</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>1129</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>1132</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>1138</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>1140</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>1145</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>1148</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>1151</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>1154</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>1157</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>1159</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>1163</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>1166</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>1169</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>1171</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>1177</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>1180</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>1184</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>1188</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>1191</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>1195</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>1197</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>1200</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>1204</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>1206</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>1208</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>1210</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>1213</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>1217</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>1221</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>1225</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>1229</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>1233</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>1236</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>1240</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>1243</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>1246</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1248</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>1252</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>1256</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>1260</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>1262</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>1265</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>1270</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>1272</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>1275</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>1279</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>1281</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>1283</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>1285</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>1289</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>1293</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>1296</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>1300</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>1303</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>1308</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>1311</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>1314</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>1316</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>1318</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>1321</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>1324</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>1327</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>1330</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>1334</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>1337</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>1340</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>1343</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>1346</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>1349</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>1352</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>1355</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>1360</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>1364</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1367</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1370</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>1373</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1376</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>1379</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>1382</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>1384</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>1387</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>1389</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>1391</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>1393</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>1395</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>1399</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>1403</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>1405</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>1407</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>1411</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>1413</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>1415</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>1418</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>1421</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>1423</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>1425</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>1427</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>1430</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>1432</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>1435</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>1437</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>1440</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>1443</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>1448</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>1451</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>1453</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>1456</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>1460</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>1462</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>1464</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1467</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>1470</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>1473</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>1476</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>1478</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>1482</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>1484</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>1489</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>1492</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>1496</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>1499</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>1502</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>1504</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>1507</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>1509</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>1511</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>1513</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>1515</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>1519</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>1522</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>1525</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>1528</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>1531</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>1533</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>1536</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>1538</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>1542</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>1544</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>1546</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>1550</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>1552</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>1554</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>1557</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>1561</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>1563</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>1567</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>1571</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>1574</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>1577</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>1580</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>1584</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>1588</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>1591</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>1594</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>1596</v>
       </c>
@@ -19759,7 +19759,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>1599</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>1600</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>1602</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>1604</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>1609</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>1612</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>1615</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>1618</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>1621</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>1624</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>1628</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>1631</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>1633</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>1638</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>1642</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>1647</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>1649</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>1653</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>1658</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>1660</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>1663</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>1665</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>1667</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>1670</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>1673</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>1676</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>1680</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>1682</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>1686</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>1688</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>1690</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>1693</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>1696</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>1700</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>1703</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>1709</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>1712</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>1714</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>1718</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>1721</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>1725</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>1729</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>1734</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>1737</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>1740</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>1743</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>1746</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>1749</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>1751</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>1753</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>1756</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>1758</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>1761</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>1764</v>
       </c>
@@ -21001,7 +21001,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>1766</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>1768</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>1771</v>
       </c>
@@ -21070,7 +21070,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1775</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1777</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1779</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>1781</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1783</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1786</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1788</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1790</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1793</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>1795</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1797</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1803</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>1806</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>1809</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>1812</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1815</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1818</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1820</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1823</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>1828</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>1831</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1835</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1838</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>1840</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>1843</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>1845</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>1847</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>1850</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>1853</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>1730</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>1858</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>1863</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>1867</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>1871</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>1874</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1876</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>1879</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>1881</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>1884</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>1888</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>1891</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>1894</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>1896</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>1899</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>1902</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>1905</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>1908</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>1911</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>1914</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>1917</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>1920</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>1922</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>1924</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>1927</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>1929</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>1932</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>1935</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>1938</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>1940</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>1943</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>1945</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>1948</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>1950</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>1952</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>1955</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>1960</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>1963</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>1967</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>1969</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>1971</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>1973</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>1977</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>1981</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>1985</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>1988</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>1990</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>1993</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>1998</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>2002</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>2004</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>2006</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>2008</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>2012</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>2015</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>2018</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>2020</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>2023</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>2028</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>2030</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>2032</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>2036</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>2038</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>2041</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>2045</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>2048</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>2050</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>2054</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>2058</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>2061</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>2063</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>2066</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>2069</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>2072</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>2076</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>2081</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>2084</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>2088</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>2090</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>2092</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>2095</v>
       </c>
@@ -23597,7 +23597,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>2098</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>2102</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>2105</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>2108</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>2111</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>2114</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>2116</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>2118</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>2120</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>2122</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>2123</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>2125</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>2127</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>2129</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>2132</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>2134</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>2137</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>2139</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>2141</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>2143</v>
       </c>
@@ -24057,7 +24057,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>2146</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>2149</v>
       </c>
@@ -24103,7 +24103,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>2153</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>2155</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>2157</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>2160</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>2162</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>2164</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>2168</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>2172</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>2174</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>2177</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>2180</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>2182</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>2184</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>2186</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>2188</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>2191</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>2194</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>2198</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>2201</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>2203</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>2206</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>2210</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>2213</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>2215</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>2219</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>2222</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>2225</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>2228</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>2229</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>2232</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>2234</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>2237</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>2240</v>
       </c>
@@ -24862,7 +24862,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>2245</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>2249</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>2252</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>2255</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>2259</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>2262</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>2265</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>2268</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>2271</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>2275</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>2277</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>2281</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>2283</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>2285</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>2287</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>2289</v>
       </c>
@@ -25221,16 +25221,16 @@
         <v>67</v>
       </c>
       <c r="E688" t="s">
+        <v>67</v>
+      </c>
+      <c r="F688" t="s">
         <v>25</v>
       </c>
-      <c r="F688" t="s">
+      <c r="G688" t="s">
         <v>2290</v>
       </c>
-      <c r="G688" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>2291</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>2293</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>2296</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>2298</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>2301</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>2303</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>2305</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>2307</v>
       </c>
@@ -25414,7 +25414,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>2309</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>2311</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>2314</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>2317</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>2319</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>2321</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>2324</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>2328</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>2330</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>2332</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>2336</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>2340</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>2342</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>2344</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>2348</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>2351</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>2354</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>2357</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>2359</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>2361</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>2364</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>2369</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>2373</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>2377</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>2380</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>2383</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>2386</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>2389</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>2392</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>2396</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>2399</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>2402</v>
       </c>
@@ -26150,7 +26150,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>2405</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>2408</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>2411</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>2414</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>2417</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>2420</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>2422</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>2425</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>2428</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>2432</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>2435</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>2438</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>2441</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>2444</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>2447</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>2451</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>2454</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>2457</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>2461</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>2464</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>2468</v>
       </c>
@@ -26624,16 +26624,16 @@
         <v>67</v>
       </c>
       <c r="E749" t="s">
+        <v>67</v>
+      </c>
+      <c r="F749" t="s">
         <v>25</v>
       </c>
-      <c r="F749" t="s">
+      <c r="G749" t="s">
         <v>2470</v>
       </c>
-      <c r="G749" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="750" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>2471</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>2474</v>
       </c>
@@ -26679,7 +26679,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>2477</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>2480</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>2483</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>2486</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>2489</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>2492</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>2495</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>2498</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>2502</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>2504</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>2506</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>2509</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>2512</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>2515</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>2519</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>2522</v>
       </c>
@@ -27047,7 +27047,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>2525</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>2528</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>2531</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>2534</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>2537</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>2540</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>2543</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>2546</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>2549</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>2552</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>2555</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>2558</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>2561</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>2564</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>2567</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>2570</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>2573</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>2576</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>2578</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>2582</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>2586</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>2588</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>2591</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>2595</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>2599</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>2602</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>2605</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>2608</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>2610</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>2613</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>2615</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>2618</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>2623</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>2627</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>2630</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>2634</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>2637</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>2639</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>2642</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>2645</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>2648</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>2650</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>2653</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>2655</v>
       </c>
@@ -28059,7 +28059,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>2658</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>2660</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>2663</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>2666</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>2669</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>2672</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>2675</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>2677</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>2680</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>2682</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>2684</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>2686</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>2688</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>2692</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>2694</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>2696</v>
       </c>
@@ -28427,7 +28427,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>2698</v>
       </c>
@@ -28450,7 +28450,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>2700</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>2701</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>2704</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>2706</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>2709</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>2712</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>2715</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>2717</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>2719</v>
       </c>
@@ -28657,7 +28657,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>2721</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>2723</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>2726</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>2729</v>
       </c>
@@ -28749,7 +28749,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>2731</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>2733</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
         <v>2736</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
         <v>2738</v>
       </c>
@@ -28841,7 +28841,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
         <v>2741</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
         <v>2743</v>
       </c>
@@ -28887,7 +28887,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
         <v>2745</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
         <v>2747</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
         <v>2749</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
         <v>2751</v>
       </c>
@@ -28979,7 +28979,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
         <v>2754</v>
       </c>
@@ -29002,7 +29002,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
         <v>2756</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>2757</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>2759</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
         <v>2761</v>
       </c>
@@ -29084,17 +29084,14 @@
       <c r="D856" t="s">
         <v>808</v>
       </c>
-      <c r="E856" t="s">
+      <c r="F856" t="s">
         <v>25</v>
       </c>
-      <c r="F856" t="s">
+      <c r="G856" t="s">
         <v>2762</v>
       </c>
-      <c r="G856" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="857" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
         <v>2763</v>
       </c>
@@ -29117,7 +29114,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
         <v>2765</v>
       </c>
@@ -29140,7 +29137,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>2767</v>
       </c>
@@ -29163,7 +29160,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>2769</v>
       </c>
@@ -29186,7 +29183,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>2771</v>
       </c>
@@ -29209,7 +29206,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>2773</v>
       </c>
@@ -29232,7 +29229,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
         <v>2775</v>
       </c>
@@ -29255,7 +29252,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
         <v>2777</v>
       </c>
@@ -29278,7 +29275,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
         <v>2779</v>
       </c>
@@ -29301,7 +29298,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>2781</v>
       </c>
@@ -29324,7 +29321,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>2783</v>
       </c>
@@ -29347,7 +29344,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>2785</v>
       </c>
@@ -29370,7 +29367,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
         <v>2787</v>
       </c>
@@ -29393,7 +29390,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
         <v>2789</v>
       </c>
@@ -29416,7 +29413,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
         <v>2791</v>
       </c>
@@ -29439,7 +29436,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
         <v>2793</v>
       </c>
@@ -29462,7 +29459,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
         <v>2795</v>
       </c>
@@ -29485,7 +29482,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
         <v>2797</v>
       </c>
@@ -29499,16 +29496,16 @@
         <v>808</v>
       </c>
       <c r="E874" t="s">
+        <v>808</v>
+      </c>
+      <c r="F874" t="s">
         <v>25</v>
       </c>
-      <c r="F874" t="s">
+      <c r="G874" t="s">
         <v>2798</v>
       </c>
-      <c r="G874" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="875" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
         <v>2799</v>
       </c>
@@ -29531,7 +29528,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
         <v>2802</v>
       </c>
@@ -29554,7 +29551,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
         <v>2805</v>
       </c>
@@ -29577,7 +29574,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>2807</v>
       </c>
@@ -29600,7 +29597,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>2809</v>
       </c>
@@ -29623,7 +29620,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
         <v>2811</v>
       </c>
@@ -29646,7 +29643,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>2813</v>
       </c>
@@ -29669,7 +29666,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
         <v>2816</v>
       </c>
@@ -29692,7 +29689,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
         <v>2820</v>
       </c>
@@ -29715,7 +29712,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
         <v>2824</v>
       </c>
@@ -29738,7 +29735,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
         <v>2826</v>
       </c>
@@ -29752,16 +29749,16 @@
         <v>808</v>
       </c>
       <c r="E885" t="s">
+        <v>808</v>
+      </c>
+      <c r="F885" t="s">
         <v>25</v>
       </c>
-      <c r="F885" t="s">
+      <c r="G885" t="s">
         <v>2827</v>
       </c>
-      <c r="G885" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="886" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
         <v>2828</v>
       </c>
@@ -29784,7 +29781,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
         <v>2830</v>
       </c>
@@ -29807,7 +29804,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
         <v>2832</v>
       </c>
@@ -29830,7 +29827,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A889" t="s">
         <v>2835</v>
       </c>
@@ -29853,7 +29850,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
         <v>2837</v>
       </c>
@@ -29876,7 +29873,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
         <v>2839</v>
       </c>
@@ -29899,7 +29896,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
         <v>2840</v>
       </c>
@@ -29922,7 +29919,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
         <v>2842</v>
       </c>
@@ -29945,7 +29942,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
         <v>2844</v>
       </c>
@@ -29968,7 +29965,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
         <v>2846</v>
       </c>
@@ -29991,7 +29988,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A896" t="s">
         <v>2849</v>
       </c>
@@ -30014,7 +30011,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
         <v>2852</v>
       </c>
@@ -30037,7 +30034,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
         <v>2854</v>
       </c>
@@ -30060,7 +30057,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A899" t="s">
         <v>2857</v>
       </c>
@@ -30083,7 +30080,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
         <v>2859</v>
       </c>
@@ -30106,7 +30103,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
         <v>2861</v>
       </c>
@@ -30129,7 +30126,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
         <v>2863</v>
       </c>
@@ -30152,7 +30149,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
         <v>2865</v>
       </c>
@@ -30175,7 +30172,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
         <v>2867</v>
       </c>
@@ -30198,7 +30195,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A905" t="s">
         <v>2869</v>
       </c>
@@ -30221,7 +30218,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A906" t="s">
         <v>2871</v>
       </c>
@@ -30244,7 +30241,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A907" t="s">
         <v>2873</v>
       </c>
@@ -30267,7 +30264,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A908" t="s">
         <v>2875</v>
       </c>
@@ -30290,7 +30287,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A909" t="s">
         <v>2878</v>
       </c>
@@ -30313,7 +30310,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
         <v>2880</v>
       </c>
@@ -30336,7 +30333,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
         <v>2882</v>
       </c>
@@ -30359,7 +30356,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A912" t="s">
         <v>2885</v>
       </c>
@@ -30382,7 +30379,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
         <v>2888</v>
       </c>
@@ -30405,7 +30402,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
         <v>2890</v>
       </c>
@@ -30428,7 +30425,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
         <v>2892</v>
       </c>
@@ -30451,7 +30448,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
         <v>2894</v>
       </c>
@@ -30474,7 +30471,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A917" t="s">
         <v>2896</v>
       </c>
@@ -30497,7 +30494,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
         <v>2900</v>
       </c>
@@ -30520,7 +30517,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A919" t="s">
         <v>2903</v>
       </c>
@@ -30543,7 +30540,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
         <v>2905</v>
       </c>
@@ -30566,7 +30563,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A921" t="s">
         <v>2907</v>
       </c>
@@ -30589,7 +30586,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A922" t="s">
         <v>2909</v>
       </c>
@@ -30612,7 +30609,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
         <v>2911</v>
       </c>
@@ -30635,7 +30632,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
         <v>2913</v>
       </c>
@@ -30658,7 +30655,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
         <v>2915</v>
       </c>
@@ -30681,7 +30678,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
         <v>2918</v>
       </c>
@@ -30704,7 +30701,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
         <v>2921</v>
       </c>
@@ -30727,7 +30724,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
         <v>2923</v>
       </c>
@@ -30750,7 +30747,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
         <v>2925</v>
       </c>
@@ -30773,7 +30770,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
         <v>2927</v>
       </c>
@@ -30796,7 +30793,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
         <v>2929</v>
       </c>
@@ -30819,7 +30816,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
         <v>2931</v>
       </c>
@@ -30842,7 +30839,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
         <v>2933</v>
       </c>
@@ -30865,7 +30862,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
         <v>2935</v>
       </c>
@@ -30888,7 +30885,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A935" t="s">
         <v>2938</v>
       </c>
@@ -30911,7 +30908,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A936" t="s">
         <v>2941</v>
       </c>
@@ -30934,7 +30931,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A937" t="s">
         <v>2943</v>
       </c>
@@ -30957,7 +30954,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
         <v>2946</v>
       </c>
@@ -30980,7 +30977,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
         <v>2949</v>
       </c>
@@ -31003,7 +31000,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
         <v>2952</v>
       </c>
@@ -31026,7 +31023,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A941" t="s">
         <v>2954</v>
       </c>
@@ -31049,7 +31046,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A942" t="s">
         <v>2956</v>
       </c>
@@ -31072,7 +31069,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A943" t="s">
         <v>2959</v>
       </c>
@@ -31095,7 +31092,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A944" t="s">
         <v>2961</v>
       </c>
@@ -31118,7 +31115,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A945" t="s">
         <v>2964</v>
       </c>
@@ -31141,7 +31138,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A946" t="s">
         <v>2966</v>
       </c>
@@ -31164,7 +31161,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A947" t="s">
         <v>2969</v>
       </c>
@@ -31187,7 +31184,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A948" t="s">
         <v>2972</v>
       </c>
@@ -31210,7 +31207,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A949" t="s">
         <v>2974</v>
       </c>
@@ -31233,7 +31230,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="950" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A950" t="s">
         <v>2977</v>
       </c>
@@ -31256,7 +31253,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
         <v>2979</v>
       </c>
@@ -31279,7 +31276,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A952" t="s">
         <v>2982</v>
       </c>
@@ -31302,7 +31299,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A953" t="s">
         <v>2985</v>
       </c>
@@ -31325,7 +31322,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A954" t="s">
         <v>2987</v>
       </c>
@@ -31348,7 +31345,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A955" t="s">
         <v>2989</v>
       </c>
@@ -31371,7 +31368,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A956" t="s">
         <v>2991</v>
       </c>
@@ -31394,7 +31391,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A957" t="s">
         <v>2993</v>
       </c>
@@ -31417,7 +31414,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A958" t="s">
         <v>2995</v>
       </c>
@@ -31440,7 +31437,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A959" t="s">
         <v>2997</v>
       </c>
